--- a/capiq_data/in_process_data/IQ7844318.xlsx
+++ b/capiq_data/in_process_data/IQ7844318.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B0FF8-A1A1-48EA-AACE-910BFAAE94CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF41D0-F9AE-4AF6-A1D3-6604F7CA5E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d3d5d42a-7f45-417e-b3c6-9faa40053bef"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a739c181-c153-4738-a4e1-c4792e09ac8b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$61</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$61</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$61</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$61</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$61</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$61</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$61</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$61</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$61</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$61</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$61</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$61</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$61</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$61</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$61</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$61</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$61</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$61</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$61</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$61</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$61</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$61</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$61</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$61</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$61</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$61</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,63 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +790,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>38776</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>30.265999999999998</v>
+        <v>17.711500000000001</v>
       </c>
       <c r="D2">
-        <v>213.31800000000001</v>
+        <v>74.778499999999994</v>
       </c>
       <c r="E2">
-        <v>147.66200000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>144.18700000000001</v>
+        <v>48.981999999999999</v>
       </c>
       <c r="G2">
-        <v>536.28300000000002</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3023.1660000000002</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.1619999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1207.8810000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +829,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>466.92399999999998</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1943.049</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1264.569</v>
+        <v>70.242000000000004</v>
       </c>
       <c r="Q2">
-        <v>28.84</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>38776</v>
       </c>
       <c r="S2">
-        <v>2077</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1080.117</v>
+        <v>757.21699999999998</v>
       </c>
       <c r="U2">
-        <v>226.57499999999999</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>62.116</v>
+        <v>-3.282</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="X2">
-        <v>2.173</v>
+        <v>-2.5</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-31.257999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AA2">
-        <v>30.265999999999998</v>
+        <v>17.711500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38868</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>33.521000000000001</v>
+        <v>17.711500000000001</v>
       </c>
       <c r="D3">
-        <v>223.298</v>
+        <v>74.778499999999994</v>
       </c>
       <c r="E3">
-        <v>185.714</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>153.08000000000001</v>
+        <v>48.981999999999999</v>
       </c>
       <c r="G3">
-        <v>448.96600000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2910.4839999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.47099999999999997</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1109.2840000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +909,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1268.625</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>378.017</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1760.461</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1119.6130000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-141.78299999999999</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38868</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1150.0229999999999</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>127.64</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-25.878</v>
+        <v>-3.282</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="X3">
-        <v>-137.13399999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>22.71</v>
+        <v>0.01</v>
       </c>
       <c r="AA3">
-        <v>33.521000000000001</v>
+        <v>19.572500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38960</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>45.66</v>
+        <v>20.346</v>
       </c>
       <c r="D4">
-        <v>226.483</v>
+        <v>79.555000000000007</v>
       </c>
       <c r="E4">
-        <v>177.18899999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>157.643</v>
+        <v>54.036000000000001</v>
       </c>
       <c r="G4">
-        <v>561.32000000000005</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3009.587</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1106.7</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,81 +995,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>423.56599999999997</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1800.5419999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1117.3530000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>48.255000000000003</v>
+        <v>-2.306</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38960</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1209.0450000000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>175.89500000000001</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>106.124</v>
+        <v>49.405999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-60.956000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>45.66</v>
+        <v>18.484999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39051</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>49.786999999999999</v>
+        <v>15.676</v>
       </c>
       <c r="D5">
-        <v>225.02600000000001</v>
+        <v>81.585999999999999</v>
       </c>
       <c r="E5">
-        <v>166.94800000000001</v>
+        <v>100.175</v>
       </c>
       <c r="F5">
-        <v>156.05799999999999</v>
+        <v>43.271999999999998</v>
       </c>
       <c r="G5">
-        <v>632.43600000000004</v>
+        <v>462.20600000000002</v>
       </c>
       <c r="H5">
-        <v>3064.2139999999999</v>
+        <v>1112.7750000000001</v>
       </c>
       <c r="I5">
-        <v>0.43099999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1104.116</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>64.676000000000002</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,78 +1078,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>433.89400000000001</v>
+        <v>220.982</v>
       </c>
       <c r="O5">
-        <v>1802.2660000000001</v>
+        <v>287.06299999999999</v>
       </c>
       <c r="P5">
-        <v>1117.4059999999999</v>
+        <v>64.676000000000002</v>
       </c>
       <c r="Q5">
-        <v>45.68</v>
+        <v>2.786</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39051</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1261.9480000000001</v>
+        <v>825.71199999999999</v>
       </c>
       <c r="U5">
-        <v>221.57499999999999</v>
+        <v>24.361999999999998</v>
       </c>
       <c r="V5">
-        <v>94.683999999999997</v>
+        <v>40.823</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-1.381</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-31.547000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>49.786999999999999</v>
+        <v>15.676</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39141</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>44.485999999999997</v>
+        <v>21.641999999999999</v>
       </c>
       <c r="D6">
-        <v>226.13399999999999</v>
+        <v>87.069000000000003</v>
       </c>
       <c r="E6">
-        <v>180.566</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>157.01300000000001</v>
+        <v>54.802999999999997</v>
       </c>
       <c r="G6">
-        <v>677.94299999999998</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3092.9960000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.23899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1066.548</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,164 +1161,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>452.80500000000001</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1787.5640000000001</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1079.2739999999999</v>
+        <v>64.676000000000002</v>
       </c>
       <c r="Q6">
-        <v>30.635999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39141</v>
       </c>
       <c r="S6">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1305.432</v>
+        <v>825.71199999999999</v>
       </c>
       <c r="U6">
-        <v>252.21100000000001</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>80.066999999999993</v>
+        <v>10.122</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-43.639000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.2930000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>44.485999999999997</v>
+        <v>21.641999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39233</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>43.966000000000001</v>
+        <v>19.850999999999999</v>
       </c>
       <c r="D7">
-        <v>229.05199999999999</v>
+        <v>88.751999999999995</v>
       </c>
       <c r="E7">
-        <v>172.18100000000001</v>
+        <v>98.602999999999994</v>
       </c>
       <c r="F7">
-        <v>156.761</v>
+        <v>58.411000000000001</v>
       </c>
       <c r="G7">
-        <v>713.13199999999995</v>
+        <v>501.40899999999999</v>
       </c>
       <c r="H7">
-        <v>3113.047</v>
+        <v>1138.7049999999999</v>
       </c>
       <c r="I7">
-        <v>0.16600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1063.962</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>30.294</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2.8119999999999998</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>421.19099999999997</v>
+        <v>208.405</v>
       </c>
       <c r="O7">
-        <v>1748.443</v>
+        <v>270.16000000000003</v>
       </c>
       <c r="P7">
-        <v>1076.787</v>
+        <v>30.294</v>
       </c>
       <c r="Q7">
-        <v>13.811</v>
+        <v>5.468</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39233</v>
       </c>
       <c r="S7">
-        <v>2465</v>
+        <v>647</v>
       </c>
       <c r="T7">
-        <v>1364.604</v>
+        <v>868.54499999999996</v>
       </c>
       <c r="U7">
-        <v>266.02199999999999</v>
+        <v>29.951000000000001</v>
       </c>
       <c r="V7">
-        <v>69.507000000000005</v>
+        <v>31.263000000000002</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-0.51600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-53.636000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>43.966000000000001</v>
+        <v>19.850999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39325</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>37.545999999999999</v>
+        <v>21.379000000000001</v>
       </c>
       <c r="D8">
-        <v>238.565</v>
+        <v>92.406999999999996</v>
       </c>
       <c r="E8">
-        <v>136.07400000000001</v>
+        <v>82.972999999999999</v>
       </c>
       <c r="F8">
-        <v>165.322</v>
+        <v>63.052999999999997</v>
       </c>
       <c r="G8">
-        <v>605.101</v>
+        <v>164.23500000000001</v>
       </c>
       <c r="H8">
-        <v>2994.89</v>
+        <v>794.84199999999998</v>
       </c>
       <c r="I8">
-        <v>0.65700000000000003</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>833.17499999999995</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>638.29499999999996</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1327,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>483.83</v>
+        <v>821.27700000000004</v>
       </c>
       <c r="O8">
-        <v>1585.2339999999999</v>
+        <v>880.76400000000001</v>
       </c>
       <c r="P8">
-        <v>876.245</v>
+        <v>638.29499999999996</v>
       </c>
       <c r="Q8">
-        <v>7.2850000000000001</v>
+        <v>-8.3520000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39325</v>
       </c>
       <c r="S8">
-        <v>2384</v>
+        <v>628</v>
       </c>
       <c r="T8">
-        <v>1409.6559999999999</v>
+        <v>-85.921999999999997</v>
       </c>
       <c r="U8">
-        <v>273.30700000000002</v>
+        <v>21.599</v>
       </c>
       <c r="V8">
-        <v>120.559</v>
+        <v>26.971</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-973</v>
       </c>
       <c r="X8">
-        <v>-202.09899999999999</v>
+        <v>-347.09899999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>107.739</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>37.545999999999999</v>
+        <v>21.379000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39416</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>48.274000000000001</v>
+        <v>18.239000000000001</v>
       </c>
       <c r="D9">
-        <v>235.44399999999999</v>
+        <v>101.658</v>
       </c>
       <c r="E9">
-        <v>124.309</v>
+        <v>80.375</v>
       </c>
       <c r="F9">
-        <v>167.09399999999999</v>
+        <v>71.873999999999995</v>
       </c>
       <c r="G9">
-        <v>670.78099999999995</v>
+        <v>281.40300000000002</v>
       </c>
       <c r="H9">
-        <v>3053.1909999999998</v>
+        <v>904.67899999999997</v>
       </c>
       <c r="I9">
-        <v>1.694</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J9">
-        <v>822.40099999999995</v>
+        <v>402.75</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.143000000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,247 +1410,247 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>493.505</v>
+        <v>244.93100000000001</v>
       </c>
       <c r="O9">
-        <v>1585.1279999999999</v>
+        <v>704.65800000000002</v>
       </c>
       <c r="P9">
-        <v>865.48299999999995</v>
+        <v>442.14299999999997</v>
       </c>
       <c r="Q9">
-        <v>67.150999999999996</v>
+        <v>12.218999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39416</v>
       </c>
       <c r="S9">
-        <v>2416</v>
+        <v>637</v>
       </c>
       <c r="T9">
-        <v>1468.0630000000001</v>
+        <v>200.02099999999999</v>
       </c>
       <c r="U9">
-        <v>340.45800000000003</v>
+        <v>33.817999999999998</v>
       </c>
       <c r="V9">
-        <v>97.596999999999994</v>
+        <v>41.869</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-8.3149999999999995</v>
+        <v>55.034999999999997</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-7.3860000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>48.274000000000001</v>
+        <v>18.239000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39507</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>54.451999999999998</v>
+        <v>17.934000000000001</v>
       </c>
       <c r="D10">
-        <v>247.08</v>
+        <v>104.95099999999999</v>
       </c>
       <c r="E10">
-        <v>153.55699999999999</v>
+        <v>129.42599999999999</v>
       </c>
       <c r="F10">
-        <v>172.88900000000001</v>
+        <v>76.691000000000003</v>
       </c>
       <c r="G10">
-        <v>514.83500000000004</v>
+        <v>345.63799999999998</v>
       </c>
       <c r="H10">
-        <v>3019.6390000000001</v>
+        <v>962.26599999999996</v>
       </c>
       <c r="I10">
-        <v>2.9849999999999999</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>811.62300000000005</v>
+        <v>397.202</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>41.326999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-5.5620000000000003</v>
       </c>
       <c r="N10">
-        <v>509.94499999999999</v>
+        <v>288.423</v>
       </c>
       <c r="O10">
-        <v>1594.4079999999999</v>
+        <v>740.09699999999998</v>
       </c>
       <c r="P10">
-        <v>854.71600000000001</v>
+        <v>460.76499999999999</v>
       </c>
       <c r="Q10">
-        <v>-157.149</v>
+        <v>-11.888999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39507</v>
       </c>
       <c r="S10">
-        <v>2759</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1425.231</v>
+        <v>222.16900000000001</v>
       </c>
       <c r="U10">
-        <v>183.309</v>
+        <v>21.928999999999998</v>
       </c>
       <c r="V10">
-        <v>59.411999999999999</v>
+        <v>20.741</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-112.04600000000001</v>
+        <v>-5.5620000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>23.009</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>54.451999999999998</v>
+        <v>17.934000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39599</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>58.936999999999998</v>
+        <v>18.631</v>
       </c>
       <c r="D11">
-        <v>219.46899999999999</v>
+        <v>108.19499999999999</v>
       </c>
       <c r="E11">
-        <v>166.91499999999999</v>
+        <v>108.169</v>
       </c>
       <c r="F11">
-        <v>154.16900000000001</v>
+        <v>81.858999999999995</v>
       </c>
       <c r="G11">
-        <v>523.33299999999997</v>
+        <v>382.63</v>
       </c>
       <c r="H11">
-        <v>3031.86</v>
+        <v>1002.777</v>
       </c>
       <c r="I11">
-        <v>1.1379999999999999</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>785.85599999999999</v>
+        <v>391.625</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>32.15</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>482.851</v>
+        <v>305.40800000000002</v>
       </c>
       <c r="O11">
-        <v>1543.1220000000001</v>
+        <v>751.91600000000005</v>
       </c>
       <c r="P11">
-        <v>828.96199999999999</v>
+        <v>446.02499999999998</v>
       </c>
       <c r="Q11">
-        <v>79.72</v>
+        <v>10.365</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39599</v>
       </c>
       <c r="S11">
-        <v>2844</v>
+        <v>686</v>
       </c>
       <c r="T11">
-        <v>1488.7380000000001</v>
+        <v>250.86099999999999</v>
       </c>
       <c r="U11">
-        <v>263.029</v>
+        <v>32.293999999999997</v>
       </c>
       <c r="V11">
-        <v>71.046999999999997</v>
+        <v>59.996000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-30.460999999999999</v>
+        <v>-6.12</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>70.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>58.936999999999998</v>
+        <v>18.631</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39691</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>61.052999999999997</v>
+        <v>18.878</v>
       </c>
       <c r="D12">
-        <v>228.423</v>
+        <v>110.399</v>
       </c>
       <c r="E12">
-        <v>160.101</v>
+        <v>90.802000000000007</v>
       </c>
       <c r="F12">
-        <v>158.727</v>
+        <v>82.599000000000004</v>
       </c>
       <c r="G12">
-        <v>617.51599999999996</v>
+        <v>366.68400000000003</v>
       </c>
       <c r="H12">
-        <v>3105.098</v>
+        <v>993.45899999999995</v>
       </c>
       <c r="I12">
-        <v>0.97899999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="J12">
-        <v>775.072</v>
+        <v>385.06700000000001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.237</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1659,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>496.46600000000001</v>
+        <v>282.71899999999999</v>
       </c>
       <c r="O12">
-        <v>1549.27</v>
+        <v>720.10199999999998</v>
       </c>
       <c r="P12">
-        <v>818.19</v>
+        <v>422.55399999999997</v>
       </c>
       <c r="Q12">
-        <v>71.671999999999997</v>
+        <v>214.15799999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39691</v>
       </c>
       <c r="S12">
-        <v>2957</v>
+        <v>724</v>
       </c>
       <c r="T12">
-        <v>1555.828</v>
+        <v>273.35700000000003</v>
       </c>
       <c r="U12">
-        <v>334.70100000000002</v>
+        <v>246.452</v>
       </c>
       <c r="V12">
-        <v>85.629000000000005</v>
+        <v>30.827000000000002</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-7.8959999999999999</v>
+        <v>-5.6120000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1698,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>61.052999999999997</v>
+        <v>18.878</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39782</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>55.31</v>
+        <v>12.824999999999999</v>
       </c>
       <c r="D13">
-        <v>228.608</v>
+        <v>107.416</v>
       </c>
       <c r="E13">
-        <v>179.92</v>
+        <v>87.488</v>
       </c>
       <c r="F13">
-        <v>160.45699999999999</v>
+        <v>72.322000000000003</v>
       </c>
       <c r="G13">
-        <v>590.09500000000003</v>
+        <v>392.255</v>
       </c>
       <c r="H13">
-        <v>3081.5889999999999</v>
+        <v>1015.048</v>
       </c>
       <c r="I13">
-        <v>1.319</v>
+        <v>0.9</v>
       </c>
       <c r="J13">
-        <v>753.28499999999997</v>
+        <v>379.709</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>34.991999999999997</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1742,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>531.95299999999997</v>
+        <v>291.09399999999999</v>
       </c>
       <c r="O13">
-        <v>1559.442</v>
+        <v>728.66600000000005</v>
       </c>
       <c r="P13">
-        <v>807.41499999999996</v>
+        <v>436.78699999999998</v>
       </c>
       <c r="Q13">
-        <v>-50.951000000000001</v>
+        <v>21.625</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39782</v>
       </c>
       <c r="S13">
-        <v>3123</v>
+        <v>766</v>
       </c>
       <c r="T13">
-        <v>1522.1469999999999</v>
+        <v>286.38200000000001</v>
       </c>
       <c r="U13">
-        <v>283.75</v>
+        <v>268.077</v>
       </c>
       <c r="V13">
-        <v>69.361000000000004</v>
+        <v>43.517000000000003</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-108.497</v>
+        <v>-5.6580000000000004</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,81 +1781,81 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>55.31</v>
+        <v>12.824999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39872</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>47.256999999999998</v>
+        <v>16.724</v>
       </c>
       <c r="D14">
-        <v>236.864</v>
+        <v>105.91500000000001</v>
       </c>
       <c r="E14">
-        <v>169.49</v>
+        <v>103.861</v>
       </c>
       <c r="F14">
-        <v>164.608</v>
+        <v>76.98</v>
       </c>
       <c r="G14">
-        <v>624.27</v>
+        <v>412.75</v>
       </c>
       <c r="H14">
-        <v>3136.1149999999998</v>
+        <v>1030.058</v>
       </c>
       <c r="I14">
-        <v>1.198</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="J14">
-        <v>788.01</v>
+        <v>369.18799999999999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>36.915999999999997</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-5.5629999999999997</v>
       </c>
       <c r="N14">
-        <v>503.041</v>
+        <v>291.50900000000001</v>
       </c>
       <c r="O14">
-        <v>1571.768</v>
+        <v>716.88</v>
       </c>
       <c r="P14">
-        <v>807.78200000000004</v>
+        <v>438.29</v>
       </c>
       <c r="Q14">
-        <v>74.683999999999997</v>
+        <v>8.8040000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39872</v>
       </c>
       <c r="S14">
-        <v>3261</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1564.347</v>
+        <v>313.178</v>
       </c>
       <c r="U14">
-        <v>358.43400000000003</v>
+        <v>276.88099999999997</v>
       </c>
       <c r="V14">
-        <v>95.146000000000001</v>
+        <v>22.472000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0.27</v>
+        <v>-5.673</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1864,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>47.256999999999998</v>
+        <v>16.724</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39964</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>80.399000000000001</v>
+        <v>19.617999999999999</v>
       </c>
       <c r="D15">
-        <v>239.68799999999999</v>
+        <v>109.375</v>
       </c>
       <c r="E15">
-        <v>191.905</v>
+        <v>95.373999999999995</v>
       </c>
       <c r="F15">
-        <v>164.261</v>
+        <v>80.105999999999995</v>
       </c>
       <c r="G15">
-        <v>988.86</v>
+        <v>452.863</v>
       </c>
       <c r="H15">
-        <v>3093.8180000000002</v>
+        <v>1063.8610000000001</v>
       </c>
       <c r="I15">
-        <v>1.542</v>
+        <v>38.606000000000002</v>
       </c>
       <c r="J15">
-        <v>783.06500000000005</v>
+        <v>358.66500000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1905,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-5.0629999999999997</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>546.65099999999995</v>
+        <v>308.52300000000002</v>
       </c>
       <c r="O15">
-        <v>1530.087</v>
+        <v>723.42399999999998</v>
       </c>
       <c r="P15">
-        <v>802.84</v>
+        <v>390.75200000000001</v>
       </c>
       <c r="Q15">
-        <v>-97.983999999999995</v>
+        <v>-204.11199999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39964</v>
       </c>
       <c r="S15">
-        <v>2623</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1563.731</v>
+        <v>340.43700000000001</v>
       </c>
       <c r="U15">
-        <v>260.45</v>
+        <v>72.769000000000005</v>
       </c>
       <c r="V15">
-        <v>20.841000000000001</v>
+        <v>46.685000000000002</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-109.33799999999999</v>
+        <v>-6.0270000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-244.73400000000001</v>
       </c>
       <c r="AA15">
-        <v>80.399000000000001</v>
+        <v>19.617999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40056</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>107.66</v>
+        <v>20.923999999999999</v>
       </c>
       <c r="D16">
-        <v>254.226</v>
+        <v>108.86799999999999</v>
       </c>
       <c r="E16">
-        <v>213.43199999999999</v>
+        <v>76.510999999999996</v>
       </c>
       <c r="F16">
-        <v>177.41</v>
+        <v>80.620999999999995</v>
       </c>
       <c r="G16">
-        <v>1006.893</v>
+        <v>479.90100000000001</v>
       </c>
       <c r="H16">
-        <v>3133.2350000000001</v>
+        <v>1082.5650000000001</v>
       </c>
       <c r="I16">
-        <v>1.859</v>
+        <v>33.945999999999998</v>
       </c>
       <c r="J16">
-        <v>778.11900000000003</v>
+        <v>348.14400000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +1991,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>475.49099999999999</v>
+        <v>311.923</v>
       </c>
       <c r="O16">
-        <v>1466.557</v>
+        <v>713.48500000000001</v>
       </c>
       <c r="P16">
-        <v>797.89700000000005</v>
+        <v>391.13099999999997</v>
       </c>
       <c r="Q16">
-        <v>422.78899999999999</v>
+        <v>38.932000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40056</v>
       </c>
       <c r="S16">
-        <v>2762</v>
+        <v>850</v>
       </c>
       <c r="T16">
-        <v>1666.6780000000001</v>
+        <v>369.08</v>
       </c>
       <c r="U16">
-        <v>683.23900000000003</v>
+        <v>111.70099999999999</v>
       </c>
       <c r="V16">
-        <v>73.210999999999999</v>
+        <v>51.686999999999998</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-1.5109999999999999</v>
+        <v>-5.6710000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-4.9859999999999998</v>
       </c>
       <c r="AA16">
-        <v>107.66</v>
+        <v>20.923999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40147</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>51.713999999999999</v>
+        <v>24.535</v>
       </c>
       <c r="D17">
-        <v>251.661</v>
+        <v>118.79</v>
       </c>
       <c r="E17">
-        <v>191.80600000000001</v>
+        <v>77.180000000000007</v>
       </c>
       <c r="F17">
-        <v>181.89099999999999</v>
+        <v>88.075999999999993</v>
       </c>
       <c r="G17">
-        <v>758.58900000000006</v>
+        <v>602.48400000000004</v>
       </c>
       <c r="H17">
-        <v>2880.279</v>
+        <v>1200.269</v>
       </c>
       <c r="I17">
-        <v>1.6950000000000001</v>
+        <v>1.8779999999999999</v>
       </c>
       <c r="J17">
-        <v>773.173</v>
+        <v>337.62200000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2074,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>498.63900000000001</v>
+        <v>292.5</v>
       </c>
       <c r="O17">
-        <v>1483.7449999999999</v>
+        <v>693.21299999999997</v>
       </c>
       <c r="P17">
-        <v>792.95399999999995</v>
+        <v>385.089</v>
       </c>
       <c r="Q17">
-        <v>-235.04599999999999</v>
+        <v>64.322999999999993</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40147</v>
       </c>
       <c r="S17">
-        <v>2876</v>
+        <v>878</v>
       </c>
       <c r="T17">
-        <v>1396.5340000000001</v>
+        <v>507.05599999999998</v>
       </c>
       <c r="U17">
-        <v>448.19299999999998</v>
+        <v>176.024</v>
       </c>
       <c r="V17">
-        <v>107.56699999999999</v>
+        <v>10.098000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-301.52800000000002</v>
+        <v>99.912999999999997</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-45.084000000000003</v>
       </c>
       <c r="AA17">
-        <v>51.713999999999999</v>
+        <v>24.535</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40237</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>44.34</v>
+        <v>27.518000000000001</v>
       </c>
       <c r="D18">
-        <v>251.10499999999999</v>
+        <v>121.68</v>
       </c>
       <c r="E18">
-        <v>178.71700000000001</v>
+        <v>152.435</v>
       </c>
       <c r="F18">
-        <v>181.26599999999999</v>
+        <v>92.388999999999996</v>
       </c>
       <c r="G18">
-        <v>769.45799999999997</v>
+        <v>355.07900000000001</v>
       </c>
       <c r="H18">
-        <v>2882.5329999999999</v>
+        <v>3050.3229999999999</v>
       </c>
       <c r="I18">
-        <v>2.835</v>
+        <v>3.7429999999999999</v>
       </c>
       <c r="J18">
-        <v>788.35799999999995</v>
+        <v>1251.625</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2154,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-10.563000000000001</v>
       </c>
       <c r="N18">
-        <v>472.91199999999998</v>
+        <v>389.31799999999998</v>
       </c>
       <c r="O18">
-        <v>1449.7</v>
+        <v>1945.7239999999999</v>
       </c>
       <c r="P18">
-        <v>788.35799999999995</v>
+        <v>1262.25</v>
       </c>
       <c r="Q18">
-        <v>60.606000000000002</v>
+        <v>-91.674999999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40237</v>
       </c>
       <c r="S18">
-        <v>2926</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1432.8330000000001</v>
+        <v>1104.5989999999999</v>
       </c>
       <c r="U18">
-        <v>508.79899999999998</v>
+        <v>139.774</v>
       </c>
       <c r="V18">
-        <v>104.054</v>
+        <v>-14.760999999999999</v>
       </c>
       <c r="W18">
-        <v>-20.393000000000001</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-29.951000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-62.256</v>
       </c>
       <c r="AA18">
-        <v>44.34</v>
+        <v>27.518000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40329</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>43.826999999999998</v>
+        <v>24.067</v>
       </c>
       <c r="D19">
-        <v>262.76900000000001</v>
+        <v>125.17</v>
       </c>
       <c r="E19">
-        <v>184.827</v>
+        <v>92.53</v>
       </c>
       <c r="F19">
-        <v>192.86500000000001</v>
+        <v>94.706999999999994</v>
       </c>
       <c r="G19">
-        <v>788.63199999999995</v>
+        <v>362.38600000000002</v>
       </c>
       <c r="H19">
-        <v>2896.527</v>
+        <v>947.93100000000004</v>
       </c>
       <c r="I19">
-        <v>1.139</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="J19">
-        <v>800</v>
+        <v>62.325000000000003</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2240,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>451.76</v>
+        <v>249.17400000000001</v>
       </c>
       <c r="O19">
-        <v>1440.827</v>
+        <v>371.49700000000001</v>
       </c>
       <c r="P19">
-        <v>800</v>
+        <v>71.27</v>
       </c>
       <c r="Q19">
-        <v>28.952000000000002</v>
+        <v>67.799000000000007</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40329</v>
       </c>
       <c r="S19">
-        <v>2889</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1455.7</v>
+        <v>576.43399999999997</v>
       </c>
       <c r="U19">
-        <v>537.75099999999998</v>
+        <v>152.148</v>
       </c>
       <c r="V19">
-        <v>66.683000000000007</v>
+        <v>69.864999999999995</v>
       </c>
       <c r="W19">
-        <v>-20.405999999999999</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-27.135999999999999</v>
+        <v>-298.91300000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>296.81400000000002</v>
       </c>
       <c r="AA19">
-        <v>43.826999999999998</v>
+        <v>24.067</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40421</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>56.017000000000003</v>
+        <v>10.319000000000001</v>
       </c>
       <c r="D20">
-        <v>270.58</v>
+        <v>202.733</v>
       </c>
       <c r="E20">
-        <v>214.48699999999999</v>
+        <v>114.527</v>
       </c>
       <c r="F20">
-        <v>203.18600000000001</v>
+        <v>132.99199999999999</v>
       </c>
       <c r="G20">
-        <v>776.77599999999995</v>
+        <v>445.72699999999998</v>
       </c>
       <c r="H20">
-        <v>2875.6280000000002</v>
+        <v>2948.4549999999999</v>
       </c>
       <c r="I20">
-        <v>2.17</v>
+        <v>1.462</v>
       </c>
       <c r="J20">
-        <v>800</v>
+        <v>1254.048</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2323,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>458.63200000000001</v>
+        <v>409.32400000000001</v>
       </c>
       <c r="O20">
-        <v>1441.914</v>
+        <v>1914.2550000000001</v>
       </c>
       <c r="P20">
-        <v>800</v>
+        <v>1267.8109999999999</v>
       </c>
       <c r="Q20">
-        <v>-82.73</v>
+        <v>45.587000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40421</v>
       </c>
       <c r="S20">
-        <v>2779</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1433.7139999999999</v>
+        <v>1034.2</v>
       </c>
       <c r="U20">
-        <v>455.02100000000002</v>
+        <v>197.73500000000001</v>
       </c>
       <c r="V20">
-        <v>24.026</v>
+        <v>66.134</v>
       </c>
       <c r="W20">
-        <v>-20.437000000000001</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-96.281999999999996</v>
+        <v>1064.298</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>18.834</v>
       </c>
       <c r="AA20">
-        <v>56.017000000000003</v>
+        <v>10.319000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40512</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>64.397999999999996</v>
+        <v>30.265999999999998</v>
       </c>
       <c r="D21">
-        <v>268.77100000000002</v>
+        <v>213.31800000000001</v>
       </c>
       <c r="E21">
-        <v>208.239</v>
+        <v>147.66200000000001</v>
       </c>
       <c r="F21">
-        <v>203.178</v>
+        <v>144.18700000000001</v>
       </c>
       <c r="G21">
-        <v>1286.357</v>
+        <v>536.28300000000002</v>
       </c>
       <c r="H21">
-        <v>3366.7910000000002</v>
+        <v>3023.1660000000002</v>
       </c>
       <c r="I21">
-        <v>1.806</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="J21">
-        <v>1578.8489999999999</v>
+        <v>1207.8810000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2406,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>490.964</v>
+        <v>466.92399999999998</v>
       </c>
       <c r="O21">
-        <v>2247.6860000000001</v>
+        <v>1943.049</v>
       </c>
       <c r="P21">
-        <v>1578.8489999999999</v>
+        <v>1264.569</v>
       </c>
       <c r="Q21">
-        <v>538.46699999999998</v>
+        <v>28.84</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40512</v>
       </c>
       <c r="S21">
-        <v>2743</v>
+        <v>2077</v>
       </c>
       <c r="T21">
-        <v>1119.105</v>
+        <v>1080.117</v>
       </c>
       <c r="U21">
-        <v>993.48800000000006</v>
+        <v>226.57499999999999</v>
       </c>
       <c r="V21">
-        <v>133.96299999999999</v>
+        <v>62.116</v>
       </c>
       <c r="W21">
-        <v>-24.146000000000001</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>419.45100000000002</v>
+        <v>2.173</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-31.257999999999999</v>
       </c>
       <c r="AA21">
-        <v>64.397999999999996</v>
+        <v>30.265999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40633</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>59.405999999999999</v>
+        <v>33.521000000000001</v>
       </c>
       <c r="D22">
-        <v>272.89299999999997</v>
+        <v>223.298</v>
       </c>
       <c r="E22">
-        <v>208.239</v>
+        <v>185.714</v>
       </c>
       <c r="F22">
-        <v>208.089</v>
+        <v>153.08000000000001</v>
       </c>
       <c r="G22">
-        <v>1063.271</v>
+        <v>448.96600000000001</v>
       </c>
       <c r="H22">
-        <v>3146.9870000000001</v>
+        <v>2910.4839999999999</v>
       </c>
       <c r="I22">
-        <v>2.512</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="J22">
-        <v>1579.404</v>
+        <v>1109.2840000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2486,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-1268.625</v>
       </c>
       <c r="N22">
-        <v>498.11599999999999</v>
+        <v>378.017</v>
       </c>
       <c r="O22">
-        <v>2245.5</v>
+        <v>1760.461</v>
       </c>
       <c r="P22">
-        <v>1579.404</v>
+        <v>1119.6130000000001</v>
       </c>
       <c r="Q22">
-        <v>-215.78200000000001</v>
+        <v>-141.78299999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40633</v>
       </c>
       <c r="S22">
-        <v>2754</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>901.48699999999997</v>
+        <v>1150.0229999999999</v>
       </c>
       <c r="U22">
-        <v>777.70600000000002</v>
+        <v>127.64</v>
       </c>
       <c r="V22">
-        <v>81.322000000000003</v>
+        <v>-25.878</v>
       </c>
       <c r="W22">
-        <v>-22.754000000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-276.084</v>
+        <v>-137.13399999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>6.7359999999999998</v>
+        <v>22.71</v>
       </c>
       <c r="AA22">
-        <v>59.405999999999999</v>
+        <v>33.521000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40724</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>60.366999999999997</v>
+        <v>45.66</v>
       </c>
       <c r="D23">
-        <v>278.82799999999997</v>
+        <v>226.483</v>
       </c>
       <c r="E23">
-        <v>260.16800000000001</v>
+        <v>177.18899999999999</v>
       </c>
       <c r="F23">
-        <v>215.65600000000001</v>
+        <v>157.643</v>
       </c>
       <c r="G23">
-        <v>763.81100000000004</v>
+        <v>561.32000000000005</v>
       </c>
       <c r="H23">
-        <v>2831.634</v>
+        <v>3009.587</v>
       </c>
       <c r="I23">
-        <v>1.514</v>
+        <v>0.625</v>
       </c>
       <c r="J23">
-        <v>1579.96</v>
+        <v>1106.7</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2572,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>468.46800000000002</v>
+        <v>423.56599999999997</v>
       </c>
       <c r="O23">
-        <v>2215.9780000000001</v>
+        <v>1800.5419999999999</v>
       </c>
       <c r="P23">
-        <v>1579.96</v>
+        <v>1117.3530000000001</v>
       </c>
       <c r="Q23">
-        <v>-332.69200000000001</v>
+        <v>48.255000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40724</v>
       </c>
       <c r="S23">
-        <v>2746</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>615.65599999999995</v>
+        <v>1209.0450000000001</v>
       </c>
       <c r="U23">
-        <v>445.01400000000001</v>
+        <v>175.89500000000001</v>
       </c>
       <c r="V23">
-        <v>36.887</v>
+        <v>106.124</v>
       </c>
       <c r="W23">
-        <v>-21.888999999999999</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-366.166</v>
+        <v>4.16</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-60.956000000000003</v>
       </c>
       <c r="AA23">
-        <v>60.366999999999997</v>
+        <v>45.66</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40816</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>66.956999999999994</v>
+        <v>49.786999999999999</v>
       </c>
       <c r="D24">
-        <v>290.596</v>
+        <v>225.02600000000001</v>
       </c>
       <c r="E24">
-        <v>247.49700000000001</v>
+        <v>166.94800000000001</v>
       </c>
       <c r="F24">
-        <v>228.46600000000001</v>
+        <v>156.05799999999999</v>
       </c>
       <c r="G24">
-        <v>737.05700000000002</v>
+        <v>632.43600000000004</v>
       </c>
       <c r="H24">
-        <v>2790.9859999999999</v>
+        <v>3064.2139999999999</v>
       </c>
       <c r="I24">
-        <v>1.732</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="J24">
-        <v>1580.5150000000001</v>
+        <v>1104.116</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2655,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>509.70400000000001</v>
+        <v>433.89400000000001</v>
       </c>
       <c r="O24">
-        <v>2255.8330000000001</v>
+        <v>1802.2660000000001</v>
       </c>
       <c r="P24">
-        <v>1580.5150000000001</v>
+        <v>1117.4059999999999</v>
       </c>
       <c r="Q24">
-        <v>-40.4</v>
+        <v>45.68</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40816</v>
       </c>
       <c r="S24">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>535.15300000000002</v>
+        <v>1261.9480000000001</v>
       </c>
       <c r="U24">
-        <v>404.61399999999998</v>
+        <v>221.57499999999999</v>
       </c>
       <c r="V24">
-        <v>118.096</v>
+        <v>94.683999999999997</v>
       </c>
       <c r="W24">
-        <v>-21.391999999999999</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-140.41800000000001</v>
+        <v>-1.381</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-31.547000000000001</v>
       </c>
       <c r="AA24">
-        <v>66.956999999999994</v>
+        <v>49.786999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40908</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>65.281000000000006</v>
+        <v>44.485999999999997</v>
       </c>
       <c r="D25">
-        <v>288.43299999999999</v>
+        <v>226.13399999999999</v>
       </c>
       <c r="E25">
-        <v>235.803</v>
+        <v>180.566</v>
       </c>
       <c r="F25">
-        <v>225.447</v>
+        <v>157.01300000000001</v>
       </c>
       <c r="G25">
-        <v>1262.3630000000001</v>
+        <v>677.94299999999998</v>
       </c>
       <c r="H25">
-        <v>3307.0839999999998</v>
+        <v>3092.9960000000001</v>
       </c>
       <c r="I25">
-        <v>1.2490000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="J25">
-        <v>2074.4780000000001</v>
+        <v>1066.548</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2738,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>516.77700000000004</v>
+        <v>452.80500000000001</v>
       </c>
       <c r="O25">
-        <v>2755.5650000000001</v>
+        <v>1787.5640000000001</v>
       </c>
       <c r="P25">
-        <v>2074.4780000000001</v>
+        <v>1079.2739999999999</v>
       </c>
       <c r="Q25">
-        <v>569.44799999999998</v>
+        <v>30.635999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40908</v>
       </c>
       <c r="S25">
-        <v>2802</v>
+        <v>2429</v>
       </c>
       <c r="T25">
-        <v>551.51900000000001</v>
+        <v>1305.432</v>
       </c>
       <c r="U25">
-        <v>974.06200000000001</v>
+        <v>252.21100000000001</v>
       </c>
       <c r="V25">
-        <v>148.52699999999999</v>
+        <v>80.066999999999993</v>
       </c>
       <c r="W25">
-        <v>-26.652000000000001</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>434.82600000000002</v>
+        <v>-43.639000000000003</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>2.2930000000000001</v>
       </c>
       <c r="AA25">
-        <v>65.281000000000006</v>
+        <v>44.485999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40999</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>68.25</v>
+        <v>43.966000000000001</v>
       </c>
       <c r="D26">
-        <v>292.81200000000001</v>
+        <v>229.05199999999999</v>
       </c>
       <c r="E26">
-        <v>221.50399999999999</v>
+        <v>172.18100000000001</v>
       </c>
       <c r="F26">
-        <v>228.99299999999999</v>
+        <v>156.761</v>
       </c>
       <c r="G26">
-        <v>1055.67</v>
+        <v>713.13199999999995</v>
       </c>
       <c r="H26">
-        <v>3082.578</v>
+        <v>3113.047</v>
       </c>
       <c r="I26">
-        <v>0.56799999999999995</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="J26">
-        <v>2075.201</v>
+        <v>1063.962</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2818,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-2.8119999999999998</v>
       </c>
       <c r="N26">
-        <v>536.57000000000005</v>
+        <v>421.19099999999997</v>
       </c>
       <c r="O26">
-        <v>2764.973</v>
+        <v>1748.443</v>
       </c>
       <c r="P26">
-        <v>2075.201</v>
+        <v>1076.787</v>
       </c>
       <c r="Q26">
-        <v>-182.22800000000001</v>
+        <v>13.811</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40999</v>
       </c>
       <c r="S26">
-        <v>2862</v>
+        <v>2465</v>
       </c>
       <c r="T26">
-        <v>317.60500000000002</v>
+        <v>1364.604</v>
       </c>
       <c r="U26">
-        <v>791.83399999999995</v>
+        <v>266.02199999999999</v>
       </c>
       <c r="V26">
-        <v>138.85300000000001</v>
+        <v>69.507000000000005</v>
       </c>
       <c r="W26">
-        <v>-26.257999999999999</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-301.14100000000002</v>
+        <v>-0.51600000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-53.636000000000003</v>
       </c>
       <c r="AA26">
-        <v>68.25</v>
+        <v>43.966000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41090</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>72.950999999999993</v>
+        <v>37.545999999999999</v>
       </c>
       <c r="D27">
-        <v>301.20699999999999</v>
+        <v>238.565</v>
       </c>
       <c r="E27">
-        <v>262.28899999999999</v>
+        <v>136.07400000000001</v>
       </c>
       <c r="F27">
-        <v>233.744</v>
+        <v>165.322</v>
       </c>
       <c r="G27">
-        <v>988.65099999999995</v>
+        <v>605.101</v>
       </c>
       <c r="H27">
-        <v>3005.1379999999999</v>
+        <v>2994.89</v>
       </c>
       <c r="I27">
-        <v>1.1379999999999999</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="J27">
-        <v>2075.924</v>
+        <v>833.17499999999995</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2904,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>496.34800000000001</v>
+        <v>483.83</v>
       </c>
       <c r="O27">
-        <v>2726.3</v>
+        <v>1585.2339999999999</v>
       </c>
       <c r="P27">
-        <v>2075.924</v>
+        <v>876.245</v>
       </c>
       <c r="Q27">
-        <v>-94.861999999999995</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41090</v>
       </c>
       <c r="S27">
-        <v>2897</v>
+        <v>2384</v>
       </c>
       <c r="T27">
-        <v>278.83800000000002</v>
+        <v>1409.6559999999999</v>
       </c>
       <c r="U27">
-        <v>696.97199999999998</v>
+        <v>273.30700000000002</v>
       </c>
       <c r="V27">
-        <v>37.015000000000001</v>
+        <v>120.559</v>
       </c>
       <c r="W27">
-        <v>-25.489000000000001</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-125.226</v>
+        <v>-202.09899999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>107.739</v>
       </c>
       <c r="AA27">
-        <v>72.950999999999993</v>
+        <v>37.545999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41182</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>81.266000000000005</v>
+        <v>48.274000000000001</v>
       </c>
       <c r="D28">
-        <v>316.089</v>
+        <v>235.44399999999999</v>
       </c>
       <c r="E28">
-        <v>289.22699999999998</v>
+        <v>124.309</v>
       </c>
       <c r="F28">
-        <v>247.55099999999999</v>
+        <v>167.09399999999999</v>
       </c>
       <c r="G28">
-        <v>1083.4380000000001</v>
+        <v>670.78099999999995</v>
       </c>
       <c r="H28">
-        <v>3090.0970000000002</v>
+        <v>3053.1909999999998</v>
       </c>
       <c r="I28">
-        <v>0.32900000000000001</v>
+        <v>1.694</v>
       </c>
       <c r="J28">
-        <v>2076.6469999999999</v>
+        <v>822.40099999999995</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +2987,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>552.39700000000005</v>
+        <v>493.505</v>
       </c>
       <c r="O28">
-        <v>2782.8969999999999</v>
+        <v>1585.1279999999999</v>
       </c>
       <c r="P28">
-        <v>2076.6469999999999</v>
+        <v>865.48299999999995</v>
       </c>
       <c r="Q28">
-        <v>53.609000000000002</v>
+        <v>67.150999999999996</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41182</v>
       </c>
       <c r="S28">
-        <v>2970</v>
+        <v>2416</v>
       </c>
       <c r="T28">
-        <v>307.2</v>
+        <v>1468.0630000000001</v>
       </c>
       <c r="U28">
-        <v>750.58100000000002</v>
+        <v>340.45800000000003</v>
       </c>
       <c r="V28">
-        <v>122.217</v>
+        <v>97.596999999999994</v>
       </c>
       <c r="W28">
-        <v>-25.431000000000001</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-65.397999999999996</v>
+        <v>-8.3149999999999995</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.77100000000000002</v>
+        <v>-7.3860000000000001</v>
       </c>
       <c r="AA28">
-        <v>81.266000000000005</v>
+        <v>48.274000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41274</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>85.153000000000006</v>
+        <v>54.451999999999998</v>
       </c>
       <c r="D29">
-        <v>322.09699999999998</v>
+        <v>247.08</v>
       </c>
       <c r="E29">
-        <v>309.19600000000003</v>
+        <v>153.55699999999999</v>
       </c>
       <c r="F29">
-        <v>253.66399999999999</v>
+        <v>172.88900000000001</v>
       </c>
       <c r="G29">
-        <v>1153.0809999999999</v>
+        <v>514.83500000000004</v>
       </c>
       <c r="H29">
-        <v>3154.4720000000002</v>
+        <v>3019.6390000000001</v>
       </c>
       <c r="I29">
-        <v>2.3849999999999998</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="J29">
-        <v>2077.37</v>
+        <v>811.62300000000005</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3070,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>563.51700000000005</v>
+        <v>509.94499999999999</v>
       </c>
       <c r="O29">
-        <v>2794.1579999999999</v>
+        <v>1594.4079999999999</v>
       </c>
       <c r="P29">
-        <v>2077.37</v>
+        <v>854.71600000000001</v>
       </c>
       <c r="Q29">
-        <v>48.433999999999997</v>
+        <v>-157.149</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41274</v>
       </c>
       <c r="S29">
-        <v>3047</v>
+        <v>2759</v>
       </c>
       <c r="T29">
-        <v>360.31400000000002</v>
+        <v>1425.231</v>
       </c>
       <c r="U29">
-        <v>799.01499999999999</v>
+        <v>183.309</v>
       </c>
       <c r="V29">
-        <v>101.773</v>
+        <v>59.411999999999999</v>
       </c>
       <c r="W29">
-        <v>-34.386000000000003</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-43.250999999999998</v>
+        <v>-112.04600000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>23.009</v>
       </c>
       <c r="AA29">
-        <v>85.153000000000006</v>
+        <v>54.451999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41364</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>64.602000000000004</v>
+        <v>58.936999999999998</v>
       </c>
       <c r="D30">
-        <v>334.779</v>
+        <v>219.46899999999999</v>
       </c>
       <c r="E30">
-        <v>327.59699999999998</v>
+        <v>166.91499999999999</v>
       </c>
       <c r="F30">
-        <v>265.53199999999998</v>
+        <v>154.16900000000001</v>
       </c>
       <c r="G30">
-        <v>1267.1289999999999</v>
+        <v>523.33299999999997</v>
       </c>
       <c r="H30">
-        <v>3275.6680000000001</v>
+        <v>3031.86</v>
       </c>
       <c r="I30">
-        <v>1.6120000000000001</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="J30">
-        <v>2078.0929999999998</v>
+        <v>785.85599999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3150,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="N30">
-        <v>607.67100000000005</v>
+        <v>482.851</v>
       </c>
       <c r="O30">
-        <v>2874.6559999999999</v>
+        <v>1543.1220000000001</v>
       </c>
       <c r="P30">
-        <v>2078.0929999999998</v>
+        <v>828.96199999999999</v>
       </c>
       <c r="Q30">
-        <v>90.486999999999995</v>
+        <v>79.72</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41364</v>
       </c>
       <c r="S30">
-        <v>3038</v>
+        <v>2844</v>
       </c>
       <c r="T30">
-        <v>401.012</v>
+        <v>1488.7380000000001</v>
       </c>
       <c r="U30">
-        <v>889.50199999999995</v>
+        <v>263.029</v>
       </c>
       <c r="V30">
-        <v>143.15299999999999</v>
+        <v>71.046999999999997</v>
       </c>
       <c r="W30">
-        <v>-34.411000000000001</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-33.667999999999999</v>
+        <v>-30.460999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AA30">
-        <v>64.602000000000004</v>
+        <v>58.936999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41455</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>115.092</v>
+        <v>61.052999999999997</v>
       </c>
       <c r="D31">
-        <v>351.31599999999997</v>
+        <v>228.423</v>
       </c>
       <c r="E31">
-        <v>462.577</v>
+        <v>160.101</v>
       </c>
       <c r="F31">
-        <v>280.012</v>
+        <v>158.727</v>
       </c>
       <c r="G31">
-        <v>1348.357</v>
+        <v>617.51599999999996</v>
       </c>
       <c r="H31">
-        <v>3344.4940000000001</v>
+        <v>3105.098</v>
       </c>
       <c r="I31">
-        <v>1.3819999999999999</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="J31">
-        <v>2078.8159999999998</v>
+        <v>775.072</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,37 +3236,37 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>655.88099999999997</v>
+        <v>496.46600000000001</v>
       </c>
       <c r="O31">
-        <v>2923.12</v>
+        <v>1549.27</v>
       </c>
       <c r="P31">
-        <v>2078.8159999999998</v>
+        <v>818.19</v>
       </c>
       <c r="Q31">
-        <v>-39.673999999999999</v>
+        <v>71.671999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41455</v>
       </c>
       <c r="S31">
-        <v>3059</v>
+        <v>2957</v>
       </c>
       <c r="T31">
-        <v>421.37400000000002</v>
+        <v>1555.828</v>
       </c>
       <c r="U31">
-        <v>849.82799999999997</v>
+        <v>334.70100000000002</v>
       </c>
       <c r="V31">
-        <v>88.596999999999994</v>
+        <v>85.629000000000005</v>
       </c>
       <c r="W31">
-        <v>-34.883000000000003</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-126.05800000000001</v>
+        <v>-7.8959999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3275,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>115.092</v>
+        <v>61.052999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41547</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>116.82899999999999</v>
+        <v>55.31</v>
       </c>
       <c r="D32">
-        <v>363.04599999999999</v>
+        <v>228.608</v>
       </c>
       <c r="E32">
-        <v>394.88600000000002</v>
+        <v>179.92</v>
       </c>
       <c r="F32">
-        <v>291.678</v>
+        <v>160.45699999999999</v>
       </c>
       <c r="G32">
-        <v>1819.491</v>
+        <v>590.09500000000003</v>
       </c>
       <c r="H32">
-        <v>3785.8029999999999</v>
+        <v>3081.5889999999999</v>
       </c>
       <c r="I32">
-        <v>1.2370000000000001</v>
+        <v>1.319</v>
       </c>
       <c r="J32">
-        <v>2573.73</v>
+        <v>753.28499999999997</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3319,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>685.68200000000002</v>
+        <v>531.95299999999997</v>
       </c>
       <c r="O32">
-        <v>3439.3809999999999</v>
+        <v>1559.442</v>
       </c>
       <c r="P32">
-        <v>2573.73</v>
+        <v>807.41499999999996</v>
       </c>
       <c r="Q32">
-        <v>517.76800000000003</v>
+        <v>-50.951000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41547</v>
       </c>
       <c r="S32">
-        <v>3062</v>
+        <v>3123</v>
       </c>
       <c r="T32">
-        <v>346.42200000000003</v>
+        <v>1522.1469999999999</v>
       </c>
       <c r="U32">
-        <v>1367.596</v>
+        <v>283.75</v>
       </c>
       <c r="V32">
-        <v>207.16499999999999</v>
+        <v>69.361000000000004</v>
       </c>
       <c r="W32">
-        <v>-33.915999999999997</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>304.416</v>
+        <v>-108.497</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3358,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>116.82899999999999</v>
+        <v>55.31</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41639</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>123.83199999999999</v>
+        <v>47.256999999999998</v>
       </c>
       <c r="D33">
-        <v>357.93400000000003</v>
+        <v>236.864</v>
       </c>
       <c r="E33">
-        <v>378.70499999999998</v>
+        <v>169.49</v>
       </c>
       <c r="F33">
-        <v>287.02800000000002</v>
+        <v>164.608</v>
       </c>
       <c r="G33">
-        <v>1857.346</v>
+        <v>624.27</v>
       </c>
       <c r="H33">
-        <v>3806.4050000000002</v>
+        <v>3136.1149999999998</v>
       </c>
       <c r="I33">
-        <v>2.2000000000000002</v>
+        <v>1.198</v>
       </c>
       <c r="J33">
-        <v>2574.616</v>
+        <v>788.01</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3402,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>675.05</v>
+        <v>503.041</v>
       </c>
       <c r="O33">
-        <v>3427.9639999999999</v>
+        <v>1571.768</v>
       </c>
       <c r="P33">
-        <v>2574.616</v>
+        <v>807.78200000000004</v>
       </c>
       <c r="Q33">
-        <v>30.802</v>
+        <v>74.683999999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41639</v>
       </c>
       <c r="S33">
-        <v>3121</v>
+        <v>3261</v>
       </c>
       <c r="T33">
-        <v>378.44099999999997</v>
+        <v>1564.347</v>
       </c>
       <c r="U33">
-        <v>1398.3979999999999</v>
+        <v>358.43400000000003</v>
       </c>
       <c r="V33">
-        <v>143.82499999999999</v>
+        <v>95.146000000000001</v>
       </c>
       <c r="W33">
-        <v>-51.734000000000002</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-97.757999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3441,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>123.83199999999999</v>
+        <v>47.256999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41729</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>152.13200000000001</v>
+        <v>80.399000000000001</v>
       </c>
       <c r="D34">
-        <v>361.68799999999999</v>
+        <v>239.68799999999999</v>
       </c>
       <c r="E34">
-        <v>473.43299999999999</v>
+        <v>191.905</v>
       </c>
       <c r="F34">
-        <v>287.93099999999998</v>
+        <v>164.261</v>
       </c>
       <c r="G34">
-        <v>1435.0889999999999</v>
+        <v>988.86</v>
       </c>
       <c r="H34">
-        <v>3387.9520000000002</v>
+        <v>3093.8180000000002</v>
       </c>
       <c r="I34">
-        <v>3.8919999999999999</v>
+        <v>1.542</v>
       </c>
       <c r="J34">
-        <v>2575.502</v>
+        <v>783.06500000000005</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,40 +3482,40 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-5.0629999999999997</v>
       </c>
       <c r="N34">
-        <v>809.00800000000004</v>
+        <v>546.65099999999995</v>
       </c>
       <c r="O34">
-        <v>3554.4459999999999</v>
+        <v>1530.087</v>
       </c>
       <c r="P34">
-        <v>2575.502</v>
+        <v>802.84</v>
       </c>
       <c r="Q34">
-        <v>-494.22199999999998</v>
+        <v>-97.983999999999995</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41729</v>
       </c>
       <c r="S34">
-        <v>3112</v>
+        <v>2623</v>
       </c>
       <c r="T34">
-        <v>-166.494</v>
+        <v>1563.731</v>
       </c>
       <c r="U34">
-        <v>904.17600000000004</v>
+        <v>260.45</v>
       </c>
       <c r="V34">
-        <v>173.17500000000001</v>
+        <v>20.841000000000001</v>
       </c>
       <c r="W34">
-        <v>-50.405000000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-707.08299999999997</v>
+        <v>-109.33799999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3524,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>152.13200000000001</v>
+        <v>80.399000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41820</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>178.19200000000001</v>
+        <v>107.66</v>
       </c>
       <c r="D35">
-        <v>371.38099999999997</v>
+        <v>254.226</v>
       </c>
       <c r="E35">
-        <v>427.09899999999999</v>
+        <v>213.43199999999999</v>
       </c>
       <c r="F35">
-        <v>296.03500000000003</v>
+        <v>177.41</v>
       </c>
       <c r="G35">
-        <v>1177.9259999999999</v>
+        <v>1006.893</v>
       </c>
       <c r="H35">
-        <v>3295.5650000000001</v>
+        <v>3133.2350000000001</v>
       </c>
       <c r="I35">
-        <v>2.0990000000000002</v>
+        <v>1.859</v>
       </c>
       <c r="J35">
-        <v>2576.3879999999999</v>
+        <v>778.11900000000003</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3568,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>720.79899999999998</v>
+        <v>475.49099999999999</v>
       </c>
       <c r="O35">
-        <v>3612.0729999999999</v>
+        <v>1466.557</v>
       </c>
       <c r="P35">
-        <v>2767.1260000000002</v>
+        <v>797.89700000000005</v>
       </c>
       <c r="Q35">
-        <v>-261.39499999999998</v>
+        <v>422.78899999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41820</v>
       </c>
       <c r="S35">
-        <v>3179</v>
+        <v>2762</v>
       </c>
       <c r="T35">
-        <v>-316.50799999999998</v>
+        <v>1666.6780000000001</v>
       </c>
       <c r="U35">
-        <v>642.78099999999995</v>
+        <v>683.23900000000003</v>
       </c>
       <c r="V35">
-        <v>87.875</v>
+        <v>73.210999999999999</v>
       </c>
       <c r="W35">
-        <v>-57.895000000000003</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-341.63499999999999</v>
+        <v>-1.5109999999999999</v>
       </c>
       <c r="Y35">
-        <v>168.48699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>178.19200000000001</v>
+        <v>107.66</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41912</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>125.69</v>
+        <v>51.713999999999999</v>
       </c>
       <c r="D36">
-        <v>385.55799999999999</v>
+        <v>251.661</v>
       </c>
       <c r="E36">
-        <v>438.31299999999999</v>
+        <v>191.80600000000001</v>
       </c>
       <c r="F36">
-        <v>313.58300000000003</v>
+        <v>181.89099999999999</v>
       </c>
       <c r="G36">
-        <v>1323.0820000000001</v>
+        <v>758.58900000000006</v>
       </c>
       <c r="H36">
-        <v>3425.09</v>
+        <v>2880.279</v>
       </c>
       <c r="I36">
-        <v>3.4889999999999999</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="J36">
-        <v>2577.2730000000001</v>
+        <v>773.173</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3651,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>766.95699999999999</v>
+        <v>498.63900000000001</v>
       </c>
       <c r="O36">
-        <v>3656.8919999999998</v>
+        <v>1483.7449999999999</v>
       </c>
       <c r="P36">
-        <v>2764.7379999999998</v>
+        <v>792.95399999999995</v>
       </c>
       <c r="Q36">
-        <v>128.33600000000001</v>
+        <v>-235.04599999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41912</v>
       </c>
       <c r="S36">
-        <v>3266</v>
+        <v>2876</v>
       </c>
       <c r="T36">
-        <v>-231.80199999999999</v>
+        <v>1396.5340000000001</v>
       </c>
       <c r="U36">
-        <v>771.11699999999996</v>
+        <v>448.19299999999998</v>
       </c>
       <c r="V36">
-        <v>189.47</v>
+        <v>107.56699999999999</v>
       </c>
       <c r="W36">
-        <v>-49.335999999999999</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-49.914000000000001</v>
+        <v>-301.52800000000002</v>
       </c>
       <c r="Y36">
-        <v>166.39099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>125.69</v>
+        <v>51.713999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42004</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>136.983</v>
+        <v>44.34</v>
       </c>
       <c r="D37">
-        <v>394.25099999999998</v>
+        <v>251.10499999999999</v>
       </c>
       <c r="E37">
-        <v>409.51900000000001</v>
+        <v>178.71700000000001</v>
       </c>
       <c r="F37">
-        <v>323.76499999999999</v>
+        <v>181.26599999999999</v>
       </c>
       <c r="G37">
-        <v>1386.088</v>
+        <v>769.45799999999997</v>
       </c>
       <c r="H37">
-        <v>3479.7420000000002</v>
+        <v>2882.5329999999999</v>
       </c>
       <c r="I37">
-        <v>2.3959999999999999</v>
+        <v>2.835</v>
       </c>
       <c r="J37">
-        <v>2578.1590000000001</v>
+        <v>788.35799999999995</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3734,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>744.52099999999996</v>
+        <v>472.91199999999998</v>
       </c>
       <c r="O37">
-        <v>3627.598</v>
+        <v>1449.7</v>
       </c>
       <c r="P37">
-        <v>2762.55</v>
+        <v>788.35799999999995</v>
       </c>
       <c r="Q37">
-        <v>110.033</v>
+        <v>60.606000000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42004</v>
       </c>
       <c r="S37">
-        <v>3358</v>
+        <v>2926</v>
       </c>
       <c r="T37">
-        <v>-147.85599999999999</v>
+        <v>1432.8330000000001</v>
       </c>
       <c r="U37">
-        <v>881.15</v>
+        <v>508.79899999999998</v>
       </c>
       <c r="V37">
-        <v>188.535</v>
+        <v>104.054</v>
       </c>
       <c r="W37">
-        <v>-57.845999999999997</v>
+        <v>-20.393000000000001</v>
       </c>
       <c r="X37">
-        <v>-58.765999999999998</v>
+        <v>-29.951000000000001</v>
       </c>
       <c r="Y37">
-        <v>163.56700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>136.983</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42094</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>122.783</v>
+        <v>43.826999999999998</v>
       </c>
       <c r="D38">
-        <v>406.60599999999999</v>
+        <v>262.76900000000001</v>
       </c>
       <c r="E38">
-        <v>499.26799999999997</v>
+        <v>184.827</v>
       </c>
       <c r="F38">
-        <v>336.452</v>
+        <v>192.86500000000001</v>
       </c>
       <c r="G38">
-        <v>2081.777</v>
+        <v>788.63199999999995</v>
       </c>
       <c r="H38">
-        <v>4204.4390000000003</v>
+        <v>2896.527</v>
       </c>
       <c r="I38">
-        <v>6.4980000000000002</v>
+        <v>1.139</v>
       </c>
       <c r="J38">
-        <v>3071.9259999999999</v>
+        <v>800</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3817,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>900.78599999999994</v>
+        <v>451.76</v>
       </c>
       <c r="O38">
-        <v>4281.1530000000002</v>
+        <v>1440.827</v>
       </c>
       <c r="P38">
-        <v>3236.07</v>
+        <v>800</v>
       </c>
       <c r="Q38">
-        <v>625.41700000000003</v>
+        <v>28.952000000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42094</v>
       </c>
       <c r="S38">
-        <v>3396</v>
+        <v>2889</v>
       </c>
       <c r="T38">
-        <v>-76.713999999999999</v>
+        <v>1455.7</v>
       </c>
       <c r="U38">
-        <v>1506.567</v>
+        <v>537.75099999999998</v>
       </c>
       <c r="V38">
-        <v>243.643</v>
+        <v>66.683000000000007</v>
       </c>
       <c r="W38">
-        <v>-57.844999999999999</v>
+        <v>-20.405999999999999</v>
       </c>
       <c r="X38">
-        <v>413.64800000000002</v>
+        <v>-27.135999999999999</v>
       </c>
       <c r="Y38">
-        <v>164.14400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>122.783</v>
+        <v>43.826999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42185</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>148.125</v>
+        <v>56.017000000000003</v>
       </c>
       <c r="D39">
-        <v>416.78</v>
+        <v>270.58</v>
       </c>
       <c r="E39">
-        <v>481.99</v>
+        <v>214.48699999999999</v>
       </c>
       <c r="F39">
-        <v>342.17099999999999</v>
+        <v>203.18600000000001</v>
       </c>
       <c r="G39">
-        <v>1619.7729999999999</v>
+        <v>776.77599999999995</v>
       </c>
       <c r="H39">
-        <v>3911.799</v>
+        <v>2875.6280000000002</v>
       </c>
       <c r="I39">
-        <v>5.8639999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="J39">
-        <v>3170.0610000000001</v>
+        <v>800</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3897,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-307.875</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>798.279</v>
+        <v>458.63200000000001</v>
       </c>
       <c r="O39">
-        <v>4266.13</v>
+        <v>1441.914</v>
       </c>
       <c r="P39">
-        <v>3353.4319999999998</v>
+        <v>800</v>
       </c>
       <c r="Q39">
-        <v>-439.71100000000001</v>
+        <v>-82.73</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42185</v>
       </c>
       <c r="S39">
-        <v>3459</v>
+        <v>2779</v>
       </c>
       <c r="T39">
-        <v>-354.33100000000002</v>
+        <v>1433.7139999999999</v>
       </c>
       <c r="U39">
-        <v>1066.856</v>
+        <v>455.02100000000002</v>
       </c>
       <c r="V39">
-        <v>112.77</v>
+        <v>24.026</v>
       </c>
       <c r="W39">
-        <v>-59.378</v>
+        <v>-20.437000000000001</v>
       </c>
       <c r="X39">
-        <v>-340.08100000000002</v>
+        <v>-96.281999999999996</v>
       </c>
       <c r="Y39">
-        <v>161.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-190.822</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>148.125</v>
+        <v>56.017000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42277</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>115.123</v>
+        <v>64.397999999999996</v>
       </c>
       <c r="D40">
-        <v>409.61599999999999</v>
+        <v>268.77100000000002</v>
       </c>
       <c r="E40">
-        <v>466.096</v>
+        <v>208.239</v>
       </c>
       <c r="F40">
-        <v>339.16</v>
+        <v>203.178</v>
       </c>
       <c r="G40">
-        <v>1909.8710000000001</v>
+        <v>1286.357</v>
       </c>
       <c r="H40">
-        <v>4187.4179999999997</v>
+        <v>3366.7910000000002</v>
       </c>
       <c r="I40">
-        <v>6.9960000000000004</v>
+        <v>1.806</v>
       </c>
       <c r="J40">
-        <v>3364.7890000000002</v>
+        <v>1578.8489999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3983,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>845.00300000000004</v>
+        <v>490.964</v>
       </c>
       <c r="O40">
-        <v>4498.3500000000004</v>
+        <v>2247.6860000000001</v>
       </c>
       <c r="P40">
-        <v>3542.6590000000001</v>
+        <v>1578.8489999999999</v>
       </c>
       <c r="Q40">
-        <v>318.12099999999998</v>
+        <v>538.46699999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42277</v>
       </c>
       <c r="S40">
-        <v>3513</v>
+        <v>2743</v>
       </c>
       <c r="T40">
-        <v>-310.93200000000002</v>
+        <v>1119.105</v>
       </c>
       <c r="U40">
-        <v>1384.9770000000001</v>
+        <v>993.48800000000006</v>
       </c>
       <c r="V40">
-        <v>262.61599999999999</v>
+        <v>133.96299999999999</v>
       </c>
       <c r="W40">
-        <v>-57.030999999999999</v>
+        <v>-24.146000000000001</v>
       </c>
       <c r="X40">
-        <v>65.03</v>
+        <v>419.45100000000002</v>
       </c>
       <c r="Y40">
-        <v>156.66200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>115.123</v>
+        <v>64.397999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42369</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>182.358</v>
+        <v>59.405999999999999</v>
       </c>
       <c r="D41">
-        <v>425.33300000000003</v>
+        <v>272.89299999999997</v>
       </c>
       <c r="E41">
-        <v>429.80399999999997</v>
+        <v>208.239</v>
       </c>
       <c r="F41">
-        <v>354.62900000000002</v>
+        <v>208.089</v>
       </c>
       <c r="G41">
-        <v>1843.0920000000001</v>
+        <v>1063.271</v>
       </c>
       <c r="H41">
-        <v>4111.7190000000001</v>
+        <v>3146.9870000000001</v>
       </c>
       <c r="I41">
-        <v>4.718</v>
+        <v>2.512</v>
       </c>
       <c r="J41">
-        <v>3365.7829999999999</v>
+        <v>1579.404</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4066,1705 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>834.85400000000004</v>
+        <v>498.11599999999999</v>
       </c>
       <c r="O41">
-        <v>4498.3050000000003</v>
+        <v>2245.5</v>
       </c>
       <c r="P41">
-        <v>3540.0859999999998</v>
+        <v>1579.404</v>
       </c>
       <c r="Q41">
-        <v>-82.119</v>
+        <v>-215.78200000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42369</v>
       </c>
       <c r="S41">
-        <v>3545</v>
+        <v>2754</v>
       </c>
       <c r="T41">
-        <v>-386.58600000000001</v>
+        <v>901.48699999999997</v>
       </c>
       <c r="U41">
-        <v>1302.8579999999999</v>
+        <v>777.70600000000002</v>
       </c>
       <c r="V41">
-        <v>199.79499999999999</v>
+        <v>81.322000000000003</v>
       </c>
       <c r="W41">
-        <v>-65.433999999999997</v>
+        <v>-22.754000000000001</v>
       </c>
       <c r="X41">
-        <v>-274.43299999999999</v>
+        <v>-276.084</v>
       </c>
       <c r="Y41">
-        <v>152.81200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>6.7359999999999998</v>
       </c>
       <c r="AA41">
-        <v>182.358</v>
+        <v>59.405999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42460</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>60.366999999999997</v>
+      </c>
+      <c r="D42">
+        <v>278.82799999999997</v>
+      </c>
+      <c r="E42">
+        <v>260.16800000000001</v>
+      </c>
+      <c r="F42">
+        <v>215.65600000000001</v>
+      </c>
+      <c r="G42">
+        <v>763.81100000000004</v>
+      </c>
+      <c r="H42">
+        <v>2831.634</v>
+      </c>
+      <c r="I42">
+        <v>1.514</v>
+      </c>
+      <c r="J42">
+        <v>1579.96</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>468.46800000000002</v>
+      </c>
+      <c r="O42">
+        <v>2215.9780000000001</v>
+      </c>
+      <c r="P42">
+        <v>1579.96</v>
+      </c>
+      <c r="Q42">
+        <v>-332.69200000000001</v>
+      </c>
+      <c r="R42">
+        <v>42460</v>
+      </c>
+      <c r="S42">
+        <v>2746</v>
+      </c>
+      <c r="T42">
+        <v>615.65599999999995</v>
+      </c>
+      <c r="U42">
+        <v>445.01400000000001</v>
+      </c>
+      <c r="V42">
+        <v>36.887</v>
+      </c>
+      <c r="W42">
+        <v>-21.888999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-366.166</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>60.366999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>66.956999999999994</v>
+      </c>
+      <c r="D43">
+        <v>290.596</v>
+      </c>
+      <c r="E43">
+        <v>247.49700000000001</v>
+      </c>
+      <c r="F43">
+        <v>228.46600000000001</v>
+      </c>
+      <c r="G43">
+        <v>737.05700000000002</v>
+      </c>
+      <c r="H43">
+        <v>2790.9859999999999</v>
+      </c>
+      <c r="I43">
+        <v>1.732</v>
+      </c>
+      <c r="J43">
+        <v>1580.5150000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>509.70400000000001</v>
+      </c>
+      <c r="O43">
+        <v>2255.8330000000001</v>
+      </c>
+      <c r="P43">
+        <v>1580.5150000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-40.4</v>
+      </c>
+      <c r="R43">
+        <v>42551</v>
+      </c>
+      <c r="S43">
+        <v>2750</v>
+      </c>
+      <c r="T43">
+        <v>535.15300000000002</v>
+      </c>
+      <c r="U43">
+        <v>404.61399999999998</v>
+      </c>
+      <c r="V43">
+        <v>118.096</v>
+      </c>
+      <c r="W43">
+        <v>-21.391999999999999</v>
+      </c>
+      <c r="X43">
+        <v>-140.41800000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>66.956999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>65.281000000000006</v>
+      </c>
+      <c r="D44">
+        <v>288.43299999999999</v>
+      </c>
+      <c r="E44">
+        <v>235.803</v>
+      </c>
+      <c r="F44">
+        <v>225.447</v>
+      </c>
+      <c r="G44">
+        <v>1262.3630000000001</v>
+      </c>
+      <c r="H44">
+        <v>3307.0839999999998</v>
+      </c>
+      <c r="I44">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="J44">
+        <v>2074.4780000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>516.77700000000004</v>
+      </c>
+      <c r="O44">
+        <v>2755.5650000000001</v>
+      </c>
+      <c r="P44">
+        <v>2074.4780000000001</v>
+      </c>
+      <c r="Q44">
+        <v>569.44799999999998</v>
+      </c>
+      <c r="R44">
+        <v>42643</v>
+      </c>
+      <c r="S44">
+        <v>2802</v>
+      </c>
+      <c r="T44">
+        <v>551.51900000000001</v>
+      </c>
+      <c r="U44">
+        <v>974.06200000000001</v>
+      </c>
+      <c r="V44">
+        <v>148.52699999999999</v>
+      </c>
+      <c r="W44">
+        <v>-26.652000000000001</v>
+      </c>
+      <c r="X44">
+        <v>434.82600000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>65.281000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>68.25</v>
+      </c>
+      <c r="D45">
+        <v>292.81200000000001</v>
+      </c>
+      <c r="E45">
+        <v>221.50399999999999</v>
+      </c>
+      <c r="F45">
+        <v>228.99299999999999</v>
+      </c>
+      <c r="G45">
+        <v>1055.67</v>
+      </c>
+      <c r="H45">
+        <v>3082.578</v>
+      </c>
+      <c r="I45">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J45">
+        <v>2075.201</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>536.57000000000005</v>
+      </c>
+      <c r="O45">
+        <v>2764.973</v>
+      </c>
+      <c r="P45">
+        <v>2075.201</v>
+      </c>
+      <c r="Q45">
+        <v>-182.22800000000001</v>
+      </c>
+      <c r="R45">
+        <v>42735</v>
+      </c>
+      <c r="S45">
+        <v>2862</v>
+      </c>
+      <c r="T45">
+        <v>317.60500000000002</v>
+      </c>
+      <c r="U45">
+        <v>791.83399999999995</v>
+      </c>
+      <c r="V45">
+        <v>138.85300000000001</v>
+      </c>
+      <c r="W45">
+        <v>-26.257999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-301.14100000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>72.950999999999993</v>
+      </c>
+      <c r="D46">
+        <v>301.20699999999999</v>
+      </c>
+      <c r="E46">
+        <v>262.28899999999999</v>
+      </c>
+      <c r="F46">
+        <v>233.744</v>
+      </c>
+      <c r="G46">
+        <v>988.65099999999995</v>
+      </c>
+      <c r="H46">
+        <v>3005.1379999999999</v>
+      </c>
+      <c r="I46">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="J46">
+        <v>2075.924</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>496.34800000000001</v>
+      </c>
+      <c r="O46">
+        <v>2726.3</v>
+      </c>
+      <c r="P46">
+        <v>2075.924</v>
+      </c>
+      <c r="Q46">
+        <v>-94.861999999999995</v>
+      </c>
+      <c r="R46">
+        <v>42825</v>
+      </c>
+      <c r="S46">
+        <v>2897</v>
+      </c>
+      <c r="T46">
+        <v>278.83800000000002</v>
+      </c>
+      <c r="U46">
+        <v>696.97199999999998</v>
+      </c>
+      <c r="V46">
+        <v>37.015000000000001</v>
+      </c>
+      <c r="W46">
+        <v>-25.489000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-125.226</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>72.950999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>81.266000000000005</v>
+      </c>
+      <c r="D47">
+        <v>316.089</v>
+      </c>
+      <c r="E47">
+        <v>289.22699999999998</v>
+      </c>
+      <c r="F47">
+        <v>247.55099999999999</v>
+      </c>
+      <c r="G47">
+        <v>1083.4380000000001</v>
+      </c>
+      <c r="H47">
+        <v>3090.0970000000002</v>
+      </c>
+      <c r="I47">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J47">
+        <v>2076.6469999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>552.39700000000005</v>
+      </c>
+      <c r="O47">
+        <v>2782.8969999999999</v>
+      </c>
+      <c r="P47">
+        <v>2076.6469999999999</v>
+      </c>
+      <c r="Q47">
+        <v>53.609000000000002</v>
+      </c>
+      <c r="R47">
+        <v>42916</v>
+      </c>
+      <c r="S47">
+        <v>2970</v>
+      </c>
+      <c r="T47">
+        <v>307.2</v>
+      </c>
+      <c r="U47">
+        <v>750.58100000000002</v>
+      </c>
+      <c r="V47">
+        <v>122.217</v>
+      </c>
+      <c r="W47">
+        <v>-25.431000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-65.397999999999996</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AA47">
+        <v>81.266000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>85.153000000000006</v>
+      </c>
+      <c r="D48">
+        <v>322.09699999999998</v>
+      </c>
+      <c r="E48">
+        <v>309.19600000000003</v>
+      </c>
+      <c r="F48">
+        <v>253.66399999999999</v>
+      </c>
+      <c r="G48">
+        <v>1153.0809999999999</v>
+      </c>
+      <c r="H48">
+        <v>3154.4720000000002</v>
+      </c>
+      <c r="I48">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="J48">
+        <v>2077.37</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>563.51700000000005</v>
+      </c>
+      <c r="O48">
+        <v>2794.1579999999999</v>
+      </c>
+      <c r="P48">
+        <v>2077.37</v>
+      </c>
+      <c r="Q48">
+        <v>48.433999999999997</v>
+      </c>
+      <c r="R48">
+        <v>43008</v>
+      </c>
+      <c r="S48">
+        <v>3047</v>
+      </c>
+      <c r="T48">
+        <v>360.31400000000002</v>
+      </c>
+      <c r="U48">
+        <v>799.01499999999999</v>
+      </c>
+      <c r="V48">
+        <v>101.773</v>
+      </c>
+      <c r="W48">
+        <v>-34.386000000000003</v>
+      </c>
+      <c r="X48">
+        <v>-43.250999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>85.153000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>64.602000000000004</v>
+      </c>
+      <c r="D49">
+        <v>334.779</v>
+      </c>
+      <c r="E49">
+        <v>327.59699999999998</v>
+      </c>
+      <c r="F49">
+        <v>265.53199999999998</v>
+      </c>
+      <c r="G49">
+        <v>1267.1289999999999</v>
+      </c>
+      <c r="H49">
+        <v>3275.6680000000001</v>
+      </c>
+      <c r="I49">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="J49">
+        <v>2078.0929999999998</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>607.67100000000005</v>
+      </c>
+      <c r="O49">
+        <v>2874.6559999999999</v>
+      </c>
+      <c r="P49">
+        <v>2078.0929999999998</v>
+      </c>
+      <c r="Q49">
+        <v>90.486999999999995</v>
+      </c>
+      <c r="R49">
+        <v>43100</v>
+      </c>
+      <c r="S49">
+        <v>3038</v>
+      </c>
+      <c r="T49">
+        <v>401.012</v>
+      </c>
+      <c r="U49">
+        <v>889.50199999999995</v>
+      </c>
+      <c r="V49">
+        <v>143.15299999999999</v>
+      </c>
+      <c r="W49">
+        <v>-34.411000000000001</v>
+      </c>
+      <c r="X49">
+        <v>-33.667999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>64.602000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>115.092</v>
+      </c>
+      <c r="D50">
+        <v>351.31599999999997</v>
+      </c>
+      <c r="E50">
+        <v>462.577</v>
+      </c>
+      <c r="F50">
+        <v>280.012</v>
+      </c>
+      <c r="G50">
+        <v>1348.357</v>
+      </c>
+      <c r="H50">
+        <v>3344.4940000000001</v>
+      </c>
+      <c r="I50">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="J50">
+        <v>2078.8159999999998</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>655.88099999999997</v>
+      </c>
+      <c r="O50">
+        <v>2923.12</v>
+      </c>
+      <c r="P50">
+        <v>2078.8159999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-39.673999999999999</v>
+      </c>
+      <c r="R50">
+        <v>43190</v>
+      </c>
+      <c r="S50">
+        <v>3059</v>
+      </c>
+      <c r="T50">
+        <v>421.37400000000002</v>
+      </c>
+      <c r="U50">
+        <v>849.82799999999997</v>
+      </c>
+      <c r="V50">
+        <v>88.596999999999994</v>
+      </c>
+      <c r="W50">
+        <v>-34.883000000000003</v>
+      </c>
+      <c r="X50">
+        <v>-126.05800000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>115.092</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>116.82899999999999</v>
+      </c>
+      <c r="D51">
+        <v>363.04599999999999</v>
+      </c>
+      <c r="E51">
+        <v>394.88600000000002</v>
+      </c>
+      <c r="F51">
+        <v>291.678</v>
+      </c>
+      <c r="G51">
+        <v>1819.491</v>
+      </c>
+      <c r="H51">
+        <v>3785.8029999999999</v>
+      </c>
+      <c r="I51">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="J51">
+        <v>2573.73</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>685.68200000000002</v>
+      </c>
+      <c r="O51">
+        <v>3439.3809999999999</v>
+      </c>
+      <c r="P51">
+        <v>2573.73</v>
+      </c>
+      <c r="Q51">
+        <v>517.76800000000003</v>
+      </c>
+      <c r="R51">
+        <v>43281</v>
+      </c>
+      <c r="S51">
+        <v>3062</v>
+      </c>
+      <c r="T51">
+        <v>346.42200000000003</v>
+      </c>
+      <c r="U51">
+        <v>1367.596</v>
+      </c>
+      <c r="V51">
+        <v>207.16499999999999</v>
+      </c>
+      <c r="W51">
+        <v>-33.915999999999997</v>
+      </c>
+      <c r="X51">
+        <v>304.416</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>116.82899999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>123.83199999999999</v>
+      </c>
+      <c r="D52">
+        <v>357.93400000000003</v>
+      </c>
+      <c r="E52">
+        <v>378.70499999999998</v>
+      </c>
+      <c r="F52">
+        <v>287.02800000000002</v>
+      </c>
+      <c r="G52">
+        <v>1857.346</v>
+      </c>
+      <c r="H52">
+        <v>3806.4050000000002</v>
+      </c>
+      <c r="I52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J52">
+        <v>2574.616</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>675.05</v>
+      </c>
+      <c r="O52">
+        <v>3427.9639999999999</v>
+      </c>
+      <c r="P52">
+        <v>2574.616</v>
+      </c>
+      <c r="Q52">
+        <v>30.802</v>
+      </c>
+      <c r="R52">
+        <v>43373</v>
+      </c>
+      <c r="S52">
+        <v>3121</v>
+      </c>
+      <c r="T52">
+        <v>378.44099999999997</v>
+      </c>
+      <c r="U52">
+        <v>1398.3979999999999</v>
+      </c>
+      <c r="V52">
+        <v>143.82499999999999</v>
+      </c>
+      <c r="W52">
+        <v>-51.734000000000002</v>
+      </c>
+      <c r="X52">
+        <v>-97.757999999999996</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>123.83199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>152.13200000000001</v>
+      </c>
+      <c r="D53">
+        <v>361.68799999999999</v>
+      </c>
+      <c r="E53">
+        <v>473.43299999999999</v>
+      </c>
+      <c r="F53">
+        <v>287.93099999999998</v>
+      </c>
+      <c r="G53">
+        <v>1435.0889999999999</v>
+      </c>
+      <c r="H53">
+        <v>3387.9520000000002</v>
+      </c>
+      <c r="I53">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="J53">
+        <v>2575.502</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>809.00800000000004</v>
+      </c>
+      <c r="O53">
+        <v>3554.4459999999999</v>
+      </c>
+      <c r="P53">
+        <v>2575.502</v>
+      </c>
+      <c r="Q53">
+        <v>-494.22199999999998</v>
+      </c>
+      <c r="R53">
+        <v>43465</v>
+      </c>
+      <c r="S53">
+        <v>3112</v>
+      </c>
+      <c r="T53">
+        <v>-166.494</v>
+      </c>
+      <c r="U53">
+        <v>904.17600000000004</v>
+      </c>
+      <c r="V53">
+        <v>173.17500000000001</v>
+      </c>
+      <c r="W53">
+        <v>-50.405000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-707.08299999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>152.13200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>178.19200000000001</v>
+      </c>
+      <c r="D54">
+        <v>371.38099999999997</v>
+      </c>
+      <c r="E54">
+        <v>427.09899999999999</v>
+      </c>
+      <c r="F54">
+        <v>296.03500000000003</v>
+      </c>
+      <c r="G54">
+        <v>1177.9259999999999</v>
+      </c>
+      <c r="H54">
+        <v>3295.5650000000001</v>
+      </c>
+      <c r="I54">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="J54">
+        <v>2576.3879999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>720.79899999999998</v>
+      </c>
+      <c r="O54">
+        <v>3612.0729999999999</v>
+      </c>
+      <c r="P54">
+        <v>2767.1260000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-261.39499999999998</v>
+      </c>
+      <c r="R54">
+        <v>43555</v>
+      </c>
+      <c r="S54">
+        <v>3179</v>
+      </c>
+      <c r="T54">
+        <v>-316.50799999999998</v>
+      </c>
+      <c r="U54">
+        <v>642.78099999999995</v>
+      </c>
+      <c r="V54">
+        <v>87.875</v>
+      </c>
+      <c r="W54">
+        <v>-57.895000000000003</v>
+      </c>
+      <c r="X54">
+        <v>-341.63499999999999</v>
+      </c>
+      <c r="Y54">
+        <v>168.48699999999999</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>178.19200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>125.69</v>
+      </c>
+      <c r="D55">
+        <v>385.55799999999999</v>
+      </c>
+      <c r="E55">
+        <v>438.31299999999999</v>
+      </c>
+      <c r="F55">
+        <v>313.58300000000003</v>
+      </c>
+      <c r="G55">
+        <v>1323.0820000000001</v>
+      </c>
+      <c r="H55">
+        <v>3425.09</v>
+      </c>
+      <c r="I55">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="J55">
+        <v>2577.2730000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>766.95699999999999</v>
+      </c>
+      <c r="O55">
+        <v>3656.8919999999998</v>
+      </c>
+      <c r="P55">
+        <v>2764.7379999999998</v>
+      </c>
+      <c r="Q55">
+        <v>128.33600000000001</v>
+      </c>
+      <c r="R55">
+        <v>43646</v>
+      </c>
+      <c r="S55">
+        <v>3266</v>
+      </c>
+      <c r="T55">
+        <v>-231.80199999999999</v>
+      </c>
+      <c r="U55">
+        <v>771.11699999999996</v>
+      </c>
+      <c r="V55">
+        <v>189.47</v>
+      </c>
+      <c r="W55">
+        <v>-49.335999999999999</v>
+      </c>
+      <c r="X55">
+        <v>-49.914000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>166.39099999999999</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>125.69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>136.983</v>
+      </c>
+      <c r="D56">
+        <v>394.25099999999998</v>
+      </c>
+      <c r="E56">
+        <v>409.51900000000001</v>
+      </c>
+      <c r="F56">
+        <v>323.76499999999999</v>
+      </c>
+      <c r="G56">
+        <v>1386.088</v>
+      </c>
+      <c r="H56">
+        <v>3479.7420000000002</v>
+      </c>
+      <c r="I56">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="J56">
+        <v>2578.1590000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>744.52099999999996</v>
+      </c>
+      <c r="O56">
+        <v>3627.598</v>
+      </c>
+      <c r="P56">
+        <v>2762.55</v>
+      </c>
+      <c r="Q56">
+        <v>110.033</v>
+      </c>
+      <c r="R56">
+        <v>43738</v>
+      </c>
+      <c r="S56">
+        <v>3358</v>
+      </c>
+      <c r="T56">
+        <v>-147.85599999999999</v>
+      </c>
+      <c r="U56">
+        <v>881.15</v>
+      </c>
+      <c r="V56">
+        <v>188.535</v>
+      </c>
+      <c r="W56">
+        <v>-57.845999999999997</v>
+      </c>
+      <c r="X56">
+        <v>-58.765999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>163.56700000000001</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>136.983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>122.783</v>
+      </c>
+      <c r="D57">
+        <v>406.60599999999999</v>
+      </c>
+      <c r="E57">
+        <v>499.26799999999997</v>
+      </c>
+      <c r="F57">
+        <v>336.452</v>
+      </c>
+      <c r="G57">
+        <v>2081.777</v>
+      </c>
+      <c r="H57">
+        <v>4204.4390000000003</v>
+      </c>
+      <c r="I57">
+        <v>6.4980000000000002</v>
+      </c>
+      <c r="J57">
+        <v>3071.9259999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>900.78599999999994</v>
+      </c>
+      <c r="O57">
+        <v>4281.1530000000002</v>
+      </c>
+      <c r="P57">
+        <v>3236.07</v>
+      </c>
+      <c r="Q57">
+        <v>625.41700000000003</v>
+      </c>
+      <c r="R57">
+        <v>43830</v>
+      </c>
+      <c r="S57">
+        <v>3396</v>
+      </c>
+      <c r="T57">
+        <v>-76.713999999999999</v>
+      </c>
+      <c r="U57">
+        <v>1506.567</v>
+      </c>
+      <c r="V57">
+        <v>243.643</v>
+      </c>
+      <c r="W57">
+        <v>-57.844999999999999</v>
+      </c>
+      <c r="X57">
+        <v>413.64800000000002</v>
+      </c>
+      <c r="Y57">
+        <v>164.14400000000001</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>122.783</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>148.125</v>
+      </c>
+      <c r="D58">
+        <v>416.78</v>
+      </c>
+      <c r="E58">
+        <v>481.99</v>
+      </c>
+      <c r="F58">
+        <v>342.17099999999999</v>
+      </c>
+      <c r="G58">
+        <v>1619.7729999999999</v>
+      </c>
+      <c r="H58">
+        <v>3911.799</v>
+      </c>
+      <c r="I58">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="J58">
+        <v>3170.0610000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-307.875</v>
+      </c>
+      <c r="N58">
+        <v>798.279</v>
+      </c>
+      <c r="O58">
+        <v>4266.13</v>
+      </c>
+      <c r="P58">
+        <v>3353.4319999999998</v>
+      </c>
+      <c r="Q58">
+        <v>-439.71100000000001</v>
+      </c>
+      <c r="R58">
+        <v>43921</v>
+      </c>
+      <c r="S58">
+        <v>3459</v>
+      </c>
+      <c r="T58">
+        <v>-354.33100000000002</v>
+      </c>
+      <c r="U58">
+        <v>1066.856</v>
+      </c>
+      <c r="V58">
+        <v>112.77</v>
+      </c>
+      <c r="W58">
+        <v>-59.378</v>
+      </c>
+      <c r="X58">
+        <v>-340.08100000000002</v>
+      </c>
+      <c r="Y58">
+        <v>161.55000000000001</v>
+      </c>
+      <c r="Z58">
+        <v>-190.822</v>
+      </c>
+      <c r="AA58">
+        <v>148.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>115.123</v>
+      </c>
+      <c r="D59">
+        <v>409.61599999999999</v>
+      </c>
+      <c r="E59">
+        <v>466.096</v>
+      </c>
+      <c r="F59">
+        <v>339.16</v>
+      </c>
+      <c r="G59">
+        <v>1909.8710000000001</v>
+      </c>
+      <c r="H59">
+        <v>4187.4179999999997</v>
+      </c>
+      <c r="I59">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="J59">
+        <v>3364.7890000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>845.00300000000004</v>
+      </c>
+      <c r="O59">
+        <v>4498.3500000000004</v>
+      </c>
+      <c r="P59">
+        <v>3542.6590000000001</v>
+      </c>
+      <c r="Q59">
+        <v>318.12099999999998</v>
+      </c>
+      <c r="R59">
+        <v>44012</v>
+      </c>
+      <c r="S59">
+        <v>3513</v>
+      </c>
+      <c r="T59">
+        <v>-310.93200000000002</v>
+      </c>
+      <c r="U59">
+        <v>1384.9770000000001</v>
+      </c>
+      <c r="V59">
+        <v>262.61599999999999</v>
+      </c>
+      <c r="W59">
+        <v>-57.030999999999999</v>
+      </c>
+      <c r="X59">
+        <v>65.03</v>
+      </c>
+      <c r="Y59">
+        <v>156.66200000000001</v>
+      </c>
+      <c r="Z59">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AA59">
+        <v>115.123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>182.358</v>
+      </c>
+      <c r="D60">
+        <v>425.33300000000003</v>
+      </c>
+      <c r="E60">
+        <v>429.80399999999997</v>
+      </c>
+      <c r="F60">
+        <v>354.62900000000002</v>
+      </c>
+      <c r="G60">
+        <v>1843.0920000000001</v>
+      </c>
+      <c r="H60">
+        <v>4111.7190000000001</v>
+      </c>
+      <c r="I60">
+        <v>4.718</v>
+      </c>
+      <c r="J60">
+        <v>3365.7829999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>834.85400000000004</v>
+      </c>
+      <c r="O60">
+        <v>4498.3050000000003</v>
+      </c>
+      <c r="P60">
+        <v>3540.0859999999998</v>
+      </c>
+      <c r="Q60">
+        <v>-82.119</v>
+      </c>
+      <c r="R60">
+        <v>44104</v>
+      </c>
+      <c r="S60">
+        <v>3545</v>
+      </c>
+      <c r="T60">
+        <v>-386.58600000000001</v>
+      </c>
+      <c r="U60">
+        <v>1302.8579999999999</v>
+      </c>
+      <c r="V60">
+        <v>199.79499999999999</v>
+      </c>
+      <c r="W60">
+        <v>-65.433999999999997</v>
+      </c>
+      <c r="X60">
+        <v>-274.43299999999999</v>
+      </c>
+      <c r="Y60">
+        <v>152.81200000000001</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>182.358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
         <v>156.21600000000001</v>
       </c>
-      <c r="D42">
+      <c r="D61">
         <v>443.661</v>
       </c>
-      <c r="E42">
+      <c r="E61">
         <v>558.56899999999996</v>
       </c>
-      <c r="F42">
+      <c r="F61">
         <v>367.726</v>
       </c>
-      <c r="G42">
+      <c r="G61">
         <v>1925.598</v>
       </c>
-      <c r="H42">
+      <c r="H61">
         <v>4198.6469999999999</v>
       </c>
-      <c r="I42">
+      <c r="I61">
         <v>14.253</v>
       </c>
-      <c r="J42">
+      <c r="J61">
         <v>3366.777</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <v>1021.769</v>
       </c>
-      <c r="O42">
+      <c r="O61">
         <v>4641.8810000000003</v>
       </c>
-      <c r="P42">
+      <c r="P61">
         <v>3541.808</v>
       </c>
-      <c r="Q42">
+      <c r="Q61">
         <v>-2.3370000000000002</v>
       </c>
-      <c r="R42">
+      <c r="R61">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S61">
         <v>3633</v>
       </c>
-      <c r="T42">
+      <c r="T61">
         <v>-443.23399999999998</v>
       </c>
-      <c r="U42">
+      <c r="U61">
         <v>1300.521</v>
       </c>
-      <c r="V42">
+      <c r="V61">
         <v>235.928</v>
       </c>
-      <c r="W42">
+      <c r="W61">
         <v>-64.600999999999999</v>
       </c>
-      <c r="X42">
+      <c r="X61">
         <v>-229.554</v>
       </c>
-      <c r="Y42">
+      <c r="Y61">
         <v>152.34200000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
         <v>156.21600000000001</v>
       </c>
     </row>
